--- a/Digitizing.Teacher/Digitizing.Api/Upload/009f2dffe1d146399eb32ba854d83c05.xlsx
+++ b/Digitizing.Teacher/Digitizing.Api/Upload/009f2dffe1d146399eb32ba854d83c05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\School\Năm bốn học kỳ 1\Internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\e-contact\e-contact-api\Digitizing.Teacher\Digitizing.Api\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7459327A-DA3D-44DE-997D-BFC5B0E6EAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0838D8A6-4E7E-40E0-BE3D-2D094C7203B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7D75FD2-8BDE-422D-BA42-EE4C5F1D039D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7D75FD2-8BDE-422D-BA42-EE4C5F1D039D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,9 +464,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -484,6 +481,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,7 +802,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,1207 +811,1207 @@
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
         <v>36896</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
         <v>37185</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
         <v>36982</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
         <v>37062</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
         <v>36997</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="K8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
         <v>37131</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
         <v>37218</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
         <v>37230</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="J11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
         <v>37004</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="J12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3">
         <v>37231</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3">
         <v>37198</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3">
         <v>37039</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="I15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3">
         <v>37096</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="J16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
         <v>37252</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
         <v>36831</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
         <v>37130</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3">
         <v>37252</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
         <v>37141</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3">
         <v>36976</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
         <v>37087</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="5" t="s">
+      <c r="J23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
         <v>37162</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
         <v>36902</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3">
         <v>36921</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3">
         <v>37214</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="5" t="s">
+      <c r="G27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3">
         <v>36978</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="G28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3">
         <v>37159</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3">
         <v>37074</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="3">
         <v>36985</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="5" t="s">
+      <c r="I31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3">
         <v>37186</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="5" t="s">
+      <c r="G32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="5" t="s">
+      <c r="J32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="4" t="s">
         <v>27</v>
       </c>
     </row>
